--- a/script/result_llm_tranform/ardupilot_docs/ap_drift-mode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_drift-mode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14124" windowHeight="7332"/>
+    <workbookView windowWidth="27948" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
